--- a/www.eia.gov/electricity/monthly/xls/table_5_05_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_5_05_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 5.5.B. Revenue from Sales of Electricity to Ultimate Customers by End-Use Sector,</t>
   </si>
   <si>
-    <t>by State, Year-to-Date through October 2016 and 2015 (Million Dollars)</t>
+    <t>by State, Year-to-Date through November 2016 and 2015 (Million Dollars)</t>
   </si>
   <si>
     <t/>
@@ -52,10 +52,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>New England</t>
@@ -1287,34 +1287,34 @@
         <v>11</v>
       </c>
       <c r="B5" s="8">
-        <v>7400</v>
+        <v>8010</v>
       </c>
       <c r="C5" s="8">
-        <v>7917</v>
+        <v>8509</v>
       </c>
       <c r="D5" s="8">
-        <v>6703</v>
+        <v>7296</v>
       </c>
       <c r="E5" s="8">
-        <v>7033</v>
+        <v>7621</v>
       </c>
       <c r="F5" s="8">
-        <v>1732</v>
+        <v>1896</v>
       </c>
       <c r="G5" s="8">
-        <v>1955</v>
+        <v>2134</v>
       </c>
       <c r="H5" s="8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I5" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J5" s="8">
-        <v>15874</v>
+        <v>17245</v>
       </c>
       <c r="K5" s="8">
-        <v>16955</v>
+        <v>18318</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1322,34 +1322,34 @@
         <v>12</v>
       </c>
       <c r="B6" s="10">
-        <v>2157</v>
+        <v>2327</v>
       </c>
       <c r="C6" s="10">
-        <v>2335</v>
+        <v>2503</v>
       </c>
       <c r="D6" s="10">
-        <v>1696</v>
+        <v>1848</v>
       </c>
       <c r="E6" s="10">
-        <v>1768</v>
+        <v>1915</v>
       </c>
       <c r="F6" s="10">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="G6" s="10">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="H6" s="10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I6" s="10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J6" s="10">
-        <v>4224</v>
+        <v>4582</v>
       </c>
       <c r="K6" s="10">
-        <v>4503</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1357,22 +1357,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="10">
-        <v>601</v>
+        <v>654</v>
       </c>
       <c r="C7" s="10">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="D7" s="10">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="E7" s="10">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="F7" s="10">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G7" s="10">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="H7" s="10">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="10">
-        <v>1220</v>
+        <v>1332</v>
       </c>
       <c r="K7" s="10">
-        <v>1279</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1392,34 +1392,34 @@
         <v>14</v>
       </c>
       <c r="B8" s="10">
-        <v>3175</v>
+        <v>3433</v>
       </c>
       <c r="C8" s="10">
-        <v>3441</v>
+        <v>3689</v>
       </c>
       <c r="D8" s="10">
-        <v>3353</v>
+        <v>3646</v>
       </c>
       <c r="E8" s="10">
-        <v>3526</v>
+        <v>3818</v>
       </c>
       <c r="F8" s="10">
-        <v>752</v>
+        <v>823</v>
       </c>
       <c r="G8" s="10">
-        <v>905</v>
+        <v>988</v>
       </c>
       <c r="H8" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" s="10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J8" s="10">
-        <v>7298</v>
+        <v>7921</v>
       </c>
       <c r="K8" s="10">
-        <v>7896</v>
+        <v>8521</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1427,22 +1427,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="10">
-        <v>685</v>
+        <v>746</v>
       </c>
       <c r="C9" s="10">
-        <v>716</v>
+        <v>772</v>
       </c>
       <c r="D9" s="10">
-        <v>544</v>
+        <v>593</v>
       </c>
       <c r="E9" s="10">
-        <v>572</v>
+        <v>621</v>
       </c>
       <c r="F9" s="10">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G9" s="10">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="H9" s="10">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="10">
-        <v>1436</v>
+        <v>1564</v>
       </c>
       <c r="K9" s="10">
-        <v>1501</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1462,34 +1462,34 @@
         <v>16</v>
       </c>
       <c r="B10" s="10">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="C10" s="10">
-        <v>515</v>
+        <v>555</v>
       </c>
       <c r="D10" s="10">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="E10" s="10">
-        <v>497</v>
+        <v>538</v>
       </c>
       <c r="F10" s="10">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G10" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H10" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="10">
         <v>4</v>
       </c>
       <c r="J10" s="10">
-        <v>1039</v>
+        <v>1128</v>
       </c>
       <c r="K10" s="10">
-        <v>1108</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1497,22 +1497,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="10">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="C11" s="10">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D11" s="10">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E11" s="10">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="F11" s="10">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G11" s="10">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="10">
-        <v>656</v>
+        <v>719</v>
       </c>
       <c r="K11" s="10">
-        <v>668</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1532,34 +1532,34 @@
         <v>18</v>
       </c>
       <c r="B12" s="8">
-        <v>17868</v>
+        <v>19290</v>
       </c>
       <c r="C12" s="8">
-        <v>18470</v>
+        <v>19861</v>
       </c>
       <c r="D12" s="8">
-        <v>16812</v>
+        <v>18273</v>
       </c>
       <c r="E12" s="8">
-        <v>17913</v>
+        <v>19394</v>
       </c>
       <c r="F12" s="8">
-        <v>4189</v>
+        <v>4569</v>
       </c>
       <c r="G12" s="8">
-        <v>4538</v>
+        <v>4938</v>
       </c>
       <c r="H12" s="8">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="I12" s="8">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="J12" s="8">
-        <v>39220</v>
+        <v>42517</v>
       </c>
       <c r="K12" s="8">
-        <v>41306</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1567,34 +1567,34 @@
         <v>19</v>
       </c>
       <c r="B13" s="10">
-        <v>3958</v>
+        <v>4236</v>
       </c>
       <c r="C13" s="10">
-        <v>4005</v>
+        <v>4279</v>
       </c>
       <c r="D13" s="10">
-        <v>4064</v>
+        <v>4406</v>
       </c>
       <c r="E13" s="10">
-        <v>4244</v>
+        <v>4593</v>
       </c>
       <c r="F13" s="10">
-        <v>596</v>
+        <v>648</v>
       </c>
       <c r="G13" s="10">
-        <v>667</v>
+        <v>726</v>
       </c>
       <c r="H13" s="10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I13" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J13" s="10">
-        <v>8640</v>
+        <v>9314</v>
       </c>
       <c r="K13" s="10">
-        <v>8943</v>
+        <v>9627</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1602,34 +1602,34 @@
         <v>20</v>
       </c>
       <c r="B14" s="10">
-        <v>7599</v>
+        <v>8222</v>
       </c>
       <c r="C14" s="10">
-        <v>8144</v>
+        <v>8760</v>
       </c>
       <c r="D14" s="10">
-        <v>9358</v>
+        <v>10172</v>
       </c>
       <c r="E14" s="10">
-        <v>10116</v>
+        <v>10933</v>
       </c>
       <c r="F14" s="10">
-        <v>865</v>
+        <v>948</v>
       </c>
       <c r="G14" s="10">
-        <v>971</v>
+        <v>1058</v>
       </c>
       <c r="H14" s="10">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="I14" s="10">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="J14" s="10">
-        <v>18100</v>
+        <v>19646</v>
       </c>
       <c r="K14" s="10">
-        <v>19539</v>
+        <v>21086</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1637,34 +1637,34 @@
         <v>21</v>
       </c>
       <c r="B15" s="10">
-        <v>6310</v>
+        <v>6832</v>
       </c>
       <c r="C15" s="10">
-        <v>6321</v>
+        <v>6822</v>
       </c>
       <c r="D15" s="10">
-        <v>3390</v>
+        <v>3696</v>
       </c>
       <c r="E15" s="10">
-        <v>3552</v>
+        <v>3868</v>
       </c>
       <c r="F15" s="10">
-        <v>2728</v>
+        <v>2973</v>
       </c>
       <c r="G15" s="10">
-        <v>2900</v>
+        <v>3154</v>
       </c>
       <c r="H15" s="10">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I15" s="10">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J15" s="10">
-        <v>12479</v>
+        <v>13556</v>
       </c>
       <c r="K15" s="10">
-        <v>12824</v>
+        <v>13899</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1672,34 +1672,34 @@
         <v>22</v>
       </c>
       <c r="B16" s="8">
-        <v>20299</v>
+        <v>21965</v>
       </c>
       <c r="C16" s="8">
-        <v>20059</v>
+        <v>21767</v>
       </c>
       <c r="D16" s="8">
-        <v>15400</v>
+        <v>16807</v>
       </c>
       <c r="E16" s="8">
-        <v>15461</v>
+        <v>16847</v>
       </c>
       <c r="F16" s="8">
-        <v>10707</v>
+        <v>11727</v>
       </c>
       <c r="G16" s="8">
-        <v>11580</v>
+        <v>12637</v>
       </c>
       <c r="H16" s="8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I16" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J16" s="8">
-        <v>46440</v>
+        <v>50535</v>
       </c>
       <c r="K16" s="8">
-        <v>47135</v>
+        <v>51289</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1707,34 +1707,34 @@
         <v>23</v>
       </c>
       <c r="B17" s="10">
-        <v>4755</v>
+        <v>5139</v>
       </c>
       <c r="C17" s="10">
-        <v>4724</v>
+        <v>5141</v>
       </c>
       <c r="D17" s="10">
-        <v>3750</v>
+        <v>4086</v>
       </c>
       <c r="E17" s="10">
-        <v>3852</v>
+        <v>4196</v>
       </c>
       <c r="F17" s="10">
-        <v>2266</v>
+        <v>2469</v>
       </c>
       <c r="G17" s="10">
-        <v>2449</v>
+        <v>2663</v>
       </c>
       <c r="H17" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I17" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J17" s="10">
-        <v>10800</v>
+        <v>11724</v>
       </c>
       <c r="K17" s="10">
-        <v>11055</v>
+        <v>12032</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1742,22 +1742,22 @@
         <v>24</v>
       </c>
       <c r="B18" s="10">
-        <v>3096</v>
+        <v>3359</v>
       </c>
       <c r="C18" s="10">
-        <v>3196</v>
+        <v>3448</v>
       </c>
       <c r="D18" s="10">
-        <v>1978</v>
+        <v>2168</v>
       </c>
       <c r="E18" s="10">
-        <v>1997</v>
+        <v>2172</v>
       </c>
       <c r="F18" s="10">
-        <v>2426</v>
+        <v>2667</v>
       </c>
       <c r="G18" s="10">
-        <v>2783</v>
+        <v>3039</v>
       </c>
       <c r="H18" s="10">
         <v>2</v>
@@ -1766,10 +1766,10 @@
         <v>2</v>
       </c>
       <c r="J18" s="10">
-        <v>7501</v>
+        <v>8196</v>
       </c>
       <c r="K18" s="10">
-        <v>7977</v>
+        <v>8660</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1777,34 +1777,34 @@
         <v>25</v>
       </c>
       <c r="B19" s="10">
-        <v>4424</v>
+        <v>4789</v>
       </c>
       <c r="C19" s="10">
-        <v>4033</v>
+        <v>4389</v>
       </c>
       <c r="D19" s="10">
-        <v>3506</v>
+        <v>3828</v>
       </c>
       <c r="E19" s="10">
-        <v>3426</v>
+        <v>3736</v>
       </c>
       <c r="F19" s="10">
-        <v>1764</v>
+        <v>1939</v>
       </c>
       <c r="G19" s="10">
-        <v>1816</v>
+        <v>1984</v>
       </c>
       <c r="H19" s="10">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="I19" s="10">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="J19" s="10">
-        <v>9694</v>
+        <v>10557</v>
       </c>
       <c r="K19" s="10">
-        <v>9275</v>
+        <v>10110</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1812,22 +1812,22 @@
         <v>26</v>
       </c>
       <c r="B20" s="10">
-        <v>5419</v>
+        <v>5843</v>
       </c>
       <c r="C20" s="10">
-        <v>5603</v>
+        <v>6058</v>
       </c>
       <c r="D20" s="10">
-        <v>3963</v>
+        <v>4329</v>
       </c>
       <c r="E20" s="10">
-        <v>4014</v>
+        <v>4380</v>
       </c>
       <c r="F20" s="10">
-        <v>2691</v>
+        <v>2947</v>
       </c>
       <c r="G20" s="10">
-        <v>2991</v>
+        <v>3272</v>
       </c>
       <c r="H20" s="10">
         <v>3</v>
@@ -1836,10 +1836,10 @@
         <v>3</v>
       </c>
       <c r="J20" s="10">
-        <v>12076</v>
+        <v>13121</v>
       </c>
       <c r="K20" s="10">
-        <v>12611</v>
+        <v>13712</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1847,34 +1847,34 @@
         <v>27</v>
       </c>
       <c r="B21" s="10">
-        <v>2606</v>
+        <v>2835</v>
       </c>
       <c r="C21" s="10">
-        <v>2504</v>
+        <v>2731</v>
       </c>
       <c r="D21" s="10">
-        <v>2202</v>
+        <v>2396</v>
       </c>
       <c r="E21" s="10">
-        <v>2172</v>
+        <v>2363</v>
       </c>
       <c r="F21" s="10">
-        <v>1560</v>
+        <v>1705</v>
       </c>
       <c r="G21" s="10">
-        <v>1542</v>
+        <v>1680</v>
       </c>
       <c r="H21" s="10">
         <v>0.02</v>
       </c>
       <c r="I21" s="10">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J21" s="10">
-        <v>6368</v>
+        <v>6936</v>
       </c>
       <c r="K21" s="10">
-        <v>6218</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1882,34 +1882,34 @@
         <v>28</v>
       </c>
       <c r="B22" s="8">
-        <v>10143</v>
+        <v>10923</v>
       </c>
       <c r="C22" s="8">
-        <v>9898</v>
+        <v>10672</v>
       </c>
       <c r="D22" s="8">
-        <v>8226</v>
+        <v>8950</v>
       </c>
       <c r="E22" s="8">
-        <v>8013</v>
+        <v>8712</v>
       </c>
       <c r="F22" s="8">
-        <v>5051</v>
+        <v>5521</v>
       </c>
       <c r="G22" s="8">
-        <v>5351</v>
+        <v>5831</v>
       </c>
       <c r="H22" s="8">
         <v>4</v>
       </c>
       <c r="I22" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" s="8">
-        <v>23423</v>
+        <v>25399</v>
       </c>
       <c r="K22" s="8">
-        <v>23265</v>
+        <v>25218</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1917,22 +1917,22 @@
         <v>29</v>
       </c>
       <c r="B23" s="10">
-        <v>1440</v>
+        <v>1544</v>
       </c>
       <c r="C23" s="10">
-        <v>1366</v>
+        <v>1464</v>
       </c>
       <c r="D23" s="10">
-        <v>971</v>
+        <v>1057</v>
       </c>
       <c r="E23" s="10">
-        <v>918</v>
+        <v>997</v>
       </c>
       <c r="F23" s="10">
-        <v>1138</v>
+        <v>1236</v>
       </c>
       <c r="G23" s="10">
-        <v>1079</v>
+        <v>1172</v>
       </c>
       <c r="H23" s="10">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="10">
-        <v>3549</v>
+        <v>3837</v>
       </c>
       <c r="K23" s="10">
-        <v>3363</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1952,22 +1952,22 @@
         <v>30</v>
       </c>
       <c r="B24" s="10">
-        <v>1504</v>
+        <v>1609</v>
       </c>
       <c r="C24" s="10">
-        <v>1404</v>
+        <v>1507</v>
       </c>
       <c r="D24" s="10">
-        <v>1371</v>
+        <v>1488</v>
       </c>
       <c r="E24" s="10">
-        <v>1320</v>
+        <v>1436</v>
       </c>
       <c r="F24" s="10">
-        <v>662</v>
+        <v>726</v>
       </c>
       <c r="G24" s="10">
-        <v>721</v>
+        <v>788</v>
       </c>
       <c r="H24" s="10">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="10">
-        <v>3536</v>
+        <v>3823</v>
       </c>
       <c r="K24" s="10">
-        <v>3446</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1987,22 +1987,22 @@
         <v>31</v>
       </c>
       <c r="B25" s="10">
-        <v>2271</v>
+        <v>2473</v>
       </c>
       <c r="C25" s="10">
-        <v>2204</v>
+        <v>2394</v>
       </c>
       <c r="D25" s="10">
-        <v>1930</v>
+        <v>2110</v>
       </c>
       <c r="E25" s="10">
-        <v>1873</v>
+        <v>2037</v>
       </c>
       <c r="F25" s="10">
-        <v>1216</v>
+        <v>1335</v>
       </c>
       <c r="G25" s="10">
-        <v>1275</v>
+        <v>1393</v>
       </c>
       <c r="H25" s="10">
         <v>2</v>
@@ -2011,10 +2011,10 @@
         <v>2</v>
       </c>
       <c r="J25" s="10">
-        <v>5419</v>
+        <v>5920</v>
       </c>
       <c r="K25" s="10">
-        <v>5353</v>
+        <v>5827</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2022,34 +2022,34 @@
         <v>32</v>
       </c>
       <c r="B26" s="10">
-        <v>3211</v>
+        <v>3437</v>
       </c>
       <c r="C26" s="10">
-        <v>3263</v>
+        <v>3504</v>
       </c>
       <c r="D26" s="10">
-        <v>2395</v>
+        <v>2591</v>
       </c>
       <c r="E26" s="10">
-        <v>2392</v>
+        <v>2592</v>
       </c>
       <c r="F26" s="10">
-        <v>692</v>
+        <v>752</v>
       </c>
       <c r="G26" s="10">
-        <v>937</v>
+        <v>1019</v>
       </c>
       <c r="H26" s="10">
         <v>2</v>
       </c>
       <c r="I26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" s="10">
-        <v>6300</v>
+        <v>6782</v>
       </c>
       <c r="K26" s="10">
-        <v>6593</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2057,22 +2057,22 @@
         <v>33</v>
       </c>
       <c r="B27" s="10">
-        <v>899</v>
+        <v>964</v>
       </c>
       <c r="C27" s="10">
-        <v>856</v>
+        <v>921</v>
       </c>
       <c r="D27" s="10">
-        <v>718</v>
+        <v>781</v>
       </c>
       <c r="E27" s="10">
-        <v>683</v>
+        <v>744</v>
       </c>
       <c r="F27" s="10">
-        <v>673</v>
+        <v>732</v>
       </c>
       <c r="G27" s="10">
-        <v>695</v>
+        <v>754</v>
       </c>
       <c r="H27" s="10">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="10">
-        <v>2290</v>
+        <v>2478</v>
       </c>
       <c r="K27" s="10">
-        <v>2234</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2092,22 +2092,22 @@
         <v>34</v>
       </c>
       <c r="B28" s="10">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="C28" s="10">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="D28" s="10">
-        <v>459</v>
+        <v>506</v>
       </c>
       <c r="E28" s="10">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="F28" s="10">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="G28" s="10">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="H28" s="10">
         <v>0</v>
@@ -2116,10 +2116,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="10">
-        <v>1345</v>
+        <v>1484</v>
       </c>
       <c r="K28" s="10">
-        <v>1316</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2127,22 +2127,22 @@
         <v>35</v>
       </c>
       <c r="B29" s="10">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="C29" s="10">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="D29" s="10">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="E29" s="10">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="F29" s="10">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G29" s="10">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="H29" s="10">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="10">
-        <v>984</v>
+        <v>1076</v>
       </c>
       <c r="K29" s="10">
-        <v>960</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2162,34 +2162,34 @@
         <v>36</v>
       </c>
       <c r="B30" s="8">
-        <v>35755</v>
+        <v>38485</v>
       </c>
       <c r="C30" s="8">
-        <v>36362</v>
+        <v>39142</v>
       </c>
       <c r="D30" s="8">
-        <v>24540</v>
+        <v>26744</v>
       </c>
       <c r="E30" s="8">
-        <v>25109</v>
+        <v>27344</v>
       </c>
       <c r="F30" s="8">
-        <v>7411</v>
+        <v>8101</v>
       </c>
       <c r="G30" s="8">
-        <v>7978</v>
+        <v>8703</v>
       </c>
       <c r="H30" s="8">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I30" s="8">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J30" s="8">
-        <v>67794</v>
+        <v>73426</v>
       </c>
       <c r="K30" s="8">
-        <v>69542</v>
+        <v>75291</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2197,22 +2197,22 @@
         <v>37</v>
       </c>
       <c r="B31" s="10">
-        <v>546</v>
+        <v>588</v>
       </c>
       <c r="C31" s="10">
-        <v>561</v>
+        <v>607</v>
       </c>
       <c r="D31" s="10">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="E31" s="10">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="F31" s="10">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G31" s="10">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="H31" s="10">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="10">
-        <v>1050</v>
+        <v>1137</v>
       </c>
       <c r="K31" s="10">
-        <v>1097</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2232,34 +2232,34 @@
         <v>38</v>
       </c>
       <c r="B32" s="10">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="C32" s="10">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="D32" s="10">
-        <v>829</v>
+        <v>904</v>
       </c>
       <c r="E32" s="10">
-        <v>833</v>
+        <v>911</v>
       </c>
       <c r="F32" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I32" s="10">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J32" s="10">
-        <v>1149</v>
+        <v>1247</v>
       </c>
       <c r="K32" s="10">
-        <v>1155</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2267,34 +2267,34 @@
         <v>39</v>
       </c>
       <c r="B33" s="10">
-        <v>11757</v>
+        <v>12681</v>
       </c>
       <c r="C33" s="10">
-        <v>12157</v>
+        <v>13223</v>
       </c>
       <c r="D33" s="10">
-        <v>7292</v>
+        <v>7966</v>
       </c>
       <c r="E33" s="10">
-        <v>7658</v>
+        <v>8396</v>
       </c>
       <c r="F33" s="10">
-        <v>1071</v>
+        <v>1175</v>
       </c>
       <c r="G33" s="10">
-        <v>1165</v>
+        <v>1278</v>
       </c>
       <c r="H33" s="10">
         <v>7</v>
       </c>
       <c r="I33" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J33" s="10">
-        <v>20127</v>
+        <v>21830</v>
       </c>
       <c r="K33" s="10">
-        <v>20987</v>
+        <v>22904</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2302,34 +2302,34 @@
         <v>40</v>
       </c>
       <c r="B34" s="10">
-        <v>5739</v>
+        <v>6129</v>
       </c>
       <c r="C34" s="10">
-        <v>5733</v>
+        <v>6102</v>
       </c>
       <c r="D34" s="10">
-        <v>3898</v>
+        <v>4240</v>
       </c>
       <c r="E34" s="10">
-        <v>4012</v>
+        <v>4335</v>
       </c>
       <c r="F34" s="10">
-        <v>1509</v>
+        <v>1645</v>
       </c>
       <c r="G34" s="10">
-        <v>1626</v>
+        <v>1760</v>
       </c>
       <c r="H34" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I34" s="10">
         <v>8</v>
       </c>
       <c r="J34" s="10">
-        <v>11154</v>
+        <v>12022</v>
       </c>
       <c r="K34" s="10">
-        <v>11379</v>
+        <v>12205</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2337,34 +2337,34 @@
         <v>41</v>
       </c>
       <c r="B35" s="10">
-        <v>3279</v>
+        <v>3535</v>
       </c>
       <c r="C35" s="10">
-        <v>3239</v>
+        <v>3490</v>
       </c>
       <c r="D35" s="10">
-        <v>2739</v>
+        <v>2987</v>
       </c>
       <c r="E35" s="10">
-        <v>2788</v>
+        <v>3049</v>
       </c>
       <c r="F35" s="10">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="G35" s="10">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="H35" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I35" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J35" s="10">
-        <v>6301</v>
+        <v>6832</v>
       </c>
       <c r="K35" s="10">
-        <v>6344</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2372,34 +2372,34 @@
         <v>42</v>
       </c>
       <c r="B36" s="10">
-        <v>5512</v>
+        <v>5934</v>
       </c>
       <c r="C36" s="10">
-        <v>5646</v>
+        <v>6030</v>
       </c>
       <c r="D36" s="10">
-        <v>3581</v>
+        <v>3887</v>
       </c>
       <c r="E36" s="10">
-        <v>3585</v>
+        <v>3883</v>
       </c>
       <c r="F36" s="10">
-        <v>1417</v>
+        <v>1542</v>
       </c>
       <c r="G36" s="10">
-        <v>1516</v>
+        <v>1652</v>
       </c>
       <c r="H36" s="10">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="I36" s="10">
         <v>1</v>
       </c>
       <c r="J36" s="10">
-        <v>10510</v>
+        <v>11364</v>
       </c>
       <c r="K36" s="10">
-        <v>10747</v>
+        <v>11566</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2407,22 +2407,22 @@
         <v>43</v>
       </c>
       <c r="B37" s="10">
-        <v>3267</v>
+        <v>3511</v>
       </c>
       <c r="C37" s="10">
-        <v>3280</v>
+        <v>3508</v>
       </c>
       <c r="D37" s="10">
-        <v>1900</v>
+        <v>2064</v>
       </c>
       <c r="E37" s="10">
-        <v>1918</v>
+        <v>2076</v>
       </c>
       <c r="F37" s="10">
-        <v>1348</v>
+        <v>1471</v>
       </c>
       <c r="G37" s="10">
-        <v>1502</v>
+        <v>1645</v>
       </c>
       <c r="H37" s="10">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="J37" s="10">
-        <v>6514</v>
+        <v>7046</v>
       </c>
       <c r="K37" s="10">
-        <v>6699</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2442,34 +2442,34 @@
         <v>44</v>
       </c>
       <c r="B38" s="10">
-        <v>4331</v>
+        <v>4672</v>
       </c>
       <c r="C38" s="10">
-        <v>4497</v>
+        <v>4834</v>
       </c>
       <c r="D38" s="10">
-        <v>3327</v>
+        <v>3629</v>
       </c>
       <c r="E38" s="10">
-        <v>3381</v>
+        <v>3670</v>
       </c>
       <c r="F38" s="10">
-        <v>961</v>
+        <v>1050</v>
       </c>
       <c r="G38" s="10">
-        <v>1036</v>
+        <v>1126</v>
       </c>
       <c r="H38" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I38" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J38" s="10">
-        <v>8630</v>
+        <v>9364</v>
       </c>
       <c r="K38" s="10">
-        <v>8928</v>
+        <v>9644</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2477,22 +2477,22 @@
         <v>45</v>
       </c>
       <c r="B39" s="10">
-        <v>1045</v>
+        <v>1137</v>
       </c>
       <c r="C39" s="10">
-        <v>967</v>
+        <v>1051</v>
       </c>
       <c r="D39" s="10">
-        <v>611</v>
+        <v>671</v>
       </c>
       <c r="E39" s="10">
-        <v>567</v>
+        <v>620</v>
       </c>
       <c r="F39" s="10">
-        <v>702</v>
+        <v>776</v>
       </c>
       <c r="G39" s="10">
-        <v>670</v>
+        <v>733</v>
       </c>
       <c r="H39" s="10">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="J39" s="10">
-        <v>2359</v>
+        <v>2584</v>
       </c>
       <c r="K39" s="10">
-        <v>2204</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2512,22 +2512,22 @@
         <v>46</v>
       </c>
       <c r="B40" s="8">
-        <v>10986</v>
+        <v>11819</v>
       </c>
       <c r="C40" s="8">
-        <v>11096</v>
+        <v>11884</v>
       </c>
       <c r="D40" s="8">
-        <v>7828</v>
+        <v>8545</v>
       </c>
       <c r="E40" s="8">
-        <v>8064</v>
+        <v>8761</v>
       </c>
       <c r="F40" s="8">
-        <v>4716</v>
+        <v>5178</v>
       </c>
       <c r="G40" s="8">
-        <v>5240</v>
+        <v>5690</v>
       </c>
       <c r="H40" s="8">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="8">
-        <v>23530</v>
+        <v>25542</v>
       </c>
       <c r="K40" s="8">
-        <v>24400</v>
+        <v>26335</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2547,22 +2547,22 @@
         <v>47</v>
       </c>
       <c r="B41" s="10">
-        <v>3322</v>
+        <v>3564</v>
       </c>
       <c r="C41" s="10">
-        <v>3254</v>
+        <v>3478</v>
       </c>
       <c r="D41" s="10">
-        <v>2179</v>
+        <v>2373</v>
       </c>
       <c r="E41" s="10">
-        <v>2174</v>
+        <v>2356</v>
       </c>
       <c r="F41" s="10">
-        <v>1652</v>
+        <v>1808</v>
       </c>
       <c r="G41" s="10">
-        <v>1739</v>
+        <v>1880</v>
       </c>
       <c r="H41" s="10">
         <v>0</v>
@@ -2571,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="10">
-        <v>7153</v>
+        <v>7745</v>
       </c>
       <c r="K41" s="10">
-        <v>7167</v>
+        <v>7713</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2582,22 +2582,22 @@
         <v>48</v>
       </c>
       <c r="B42" s="10">
-        <v>2288</v>
+        <v>2468</v>
       </c>
       <c r="C42" s="10">
-        <v>2297</v>
+        <v>2472</v>
       </c>
       <c r="D42" s="10">
-        <v>1536</v>
+        <v>1679</v>
       </c>
       <c r="E42" s="10">
-        <v>1569</v>
+        <v>1707</v>
       </c>
       <c r="F42" s="10">
-        <v>1244</v>
+        <v>1369</v>
       </c>
       <c r="G42" s="10">
-        <v>1416</v>
+        <v>1540</v>
       </c>
       <c r="H42" s="10">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="10">
-        <v>5068</v>
+        <v>5516</v>
       </c>
       <c r="K42" s="10">
-        <v>5282</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2617,22 +2617,22 @@
         <v>49</v>
       </c>
       <c r="B43" s="10">
-        <v>1685</v>
+        <v>1817</v>
       </c>
       <c r="C43" s="10">
-        <v>1826</v>
+        <v>1953</v>
       </c>
       <c r="D43" s="10">
-        <v>1133</v>
+        <v>1239</v>
       </c>
       <c r="E43" s="10">
-        <v>1297</v>
+        <v>1410</v>
       </c>
       <c r="F43" s="10">
-        <v>809</v>
+        <v>889</v>
       </c>
       <c r="G43" s="10">
-        <v>873</v>
+        <v>954</v>
       </c>
       <c r="H43" s="10">
         <v>0</v>
@@ -2641,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="10">
-        <v>3627</v>
+        <v>3945</v>
       </c>
       <c r="K43" s="10">
-        <v>3996</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2652,22 +2652,22 @@
         <v>50</v>
       </c>
       <c r="B44" s="10">
-        <v>3692</v>
+        <v>3970</v>
       </c>
       <c r="C44" s="10">
-        <v>3719</v>
+        <v>3980</v>
       </c>
       <c r="D44" s="10">
-        <v>2980</v>
+        <v>3255</v>
       </c>
       <c r="E44" s="10">
-        <v>3023</v>
+        <v>3288</v>
       </c>
       <c r="F44" s="10">
-        <v>1011</v>
+        <v>1112</v>
       </c>
       <c r="G44" s="10">
-        <v>1213</v>
+        <v>1317</v>
       </c>
       <c r="H44" s="10">
         <v>0</v>
@@ -2676,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="J44" s="10">
-        <v>7683</v>
+        <v>8336</v>
       </c>
       <c r="K44" s="10">
-        <v>7955</v>
+        <v>8585</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2687,34 +2687,34 @@
         <v>51</v>
       </c>
       <c r="B45" s="8">
-        <v>19818</v>
+        <v>21257</v>
       </c>
       <c r="C45" s="8">
-        <v>20910</v>
+        <v>22280</v>
       </c>
       <c r="D45" s="8">
-        <v>12885</v>
+        <v>14047</v>
       </c>
       <c r="E45" s="8">
-        <v>13601</v>
+        <v>14751</v>
       </c>
       <c r="F45" s="8">
-        <v>7451</v>
+        <v>8176</v>
       </c>
       <c r="G45" s="8">
-        <v>8491</v>
+        <v>9255</v>
       </c>
       <c r="H45" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I45" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J45" s="8">
-        <v>40164</v>
+        <v>43490</v>
       </c>
       <c r="K45" s="8">
-        <v>43011</v>
+        <v>46295</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2722,34 +2722,34 @@
         <v>52</v>
       </c>
       <c r="B46" s="10">
-        <v>1519</v>
+        <v>1629</v>
       </c>
       <c r="C46" s="10">
-        <v>1566</v>
+        <v>1670</v>
       </c>
       <c r="D46" s="10">
-        <v>839</v>
+        <v>915</v>
       </c>
       <c r="E46" s="10">
-        <v>864</v>
+        <v>939</v>
       </c>
       <c r="F46" s="10">
-        <v>794</v>
+        <v>870</v>
       </c>
       <c r="G46" s="10">
-        <v>849</v>
+        <v>926</v>
       </c>
       <c r="H46" s="10">
         <v>0.04</v>
       </c>
       <c r="I46" s="10">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J46" s="10">
-        <v>3152</v>
+        <v>3414</v>
       </c>
       <c r="K46" s="10">
-        <v>3279</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2757,22 +2757,22 @@
         <v>53</v>
       </c>
       <c r="B47" s="10">
-        <v>2413</v>
+        <v>2600</v>
       </c>
       <c r="C47" s="10">
-        <v>2585</v>
+        <v>2763</v>
       </c>
       <c r="D47" s="10">
-        <v>1778</v>
+        <v>1950</v>
       </c>
       <c r="E47" s="10">
-        <v>1844</v>
+        <v>2010</v>
       </c>
       <c r="F47" s="10">
-        <v>1385</v>
+        <v>1526</v>
       </c>
       <c r="G47" s="10">
-        <v>1600</v>
+        <v>1752</v>
       </c>
       <c r="H47" s="10">
         <v>1</v>
@@ -2781,10 +2781,10 @@
         <v>1</v>
       </c>
       <c r="J47" s="10">
-        <v>5577</v>
+        <v>6077</v>
       </c>
       <c r="K47" s="10">
-        <v>6030</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2792,22 +2792,22 @@
         <v>54</v>
       </c>
       <c r="B48" s="10">
-        <v>2017</v>
+        <v>2141</v>
       </c>
       <c r="C48" s="10">
-        <v>2002</v>
+        <v>2135</v>
       </c>
       <c r="D48" s="10">
-        <v>1294</v>
+        <v>1400</v>
       </c>
       <c r="E48" s="10">
-        <v>1370</v>
+        <v>1482</v>
       </c>
       <c r="F48" s="10">
-        <v>688</v>
+        <v>752</v>
       </c>
       <c r="G48" s="10">
-        <v>820</v>
+        <v>894</v>
       </c>
       <c r="H48" s="10">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="10">
-        <v>4000</v>
+        <v>4293</v>
       </c>
       <c r="K48" s="10">
-        <v>4191</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2827,34 +2827,34 @@
         <v>55</v>
       </c>
       <c r="B49" s="10">
-        <v>13869</v>
+        <v>14888</v>
       </c>
       <c r="C49" s="10">
-        <v>14757</v>
+        <v>15712</v>
       </c>
       <c r="D49" s="10">
-        <v>8974</v>
+        <v>9782</v>
       </c>
       <c r="E49" s="10">
-        <v>9524</v>
+        <v>10320</v>
       </c>
       <c r="F49" s="10">
-        <v>4584</v>
+        <v>5027</v>
       </c>
       <c r="G49" s="10">
-        <v>5222</v>
+        <v>5683</v>
       </c>
       <c r="H49" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I49" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J49" s="10">
-        <v>27435</v>
+        <v>29706</v>
       </c>
       <c r="K49" s="10">
-        <v>29511</v>
+        <v>31723</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2862,34 +2862,34 @@
         <v>56</v>
       </c>
       <c r="B50" s="8">
-        <v>9699</v>
+        <v>10425</v>
       </c>
       <c r="C50" s="8">
-        <v>9644</v>
+        <v>10356</v>
       </c>
       <c r="D50" s="8">
-        <v>7713</v>
+        <v>8387</v>
       </c>
       <c r="E50" s="8">
-        <v>7855</v>
+        <v>8530</v>
       </c>
       <c r="F50" s="8">
-        <v>4498</v>
+        <v>4863</v>
       </c>
       <c r="G50" s="8">
-        <v>4786</v>
+        <v>5193</v>
       </c>
       <c r="H50" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I50" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J50" s="8">
-        <v>21921</v>
+        <v>23687</v>
       </c>
       <c r="K50" s="8">
-        <v>22296</v>
+        <v>24092</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2897,34 +2897,34 @@
         <v>57</v>
       </c>
       <c r="B51" s="10">
-        <v>3643</v>
+        <v>3868</v>
       </c>
       <c r="C51" s="10">
-        <v>3542</v>
+        <v>3752</v>
       </c>
       <c r="D51" s="10">
-        <v>2679</v>
+        <v>2892</v>
       </c>
       <c r="E51" s="10">
-        <v>2636</v>
+        <v>2837</v>
       </c>
       <c r="F51" s="10">
-        <v>766</v>
+        <v>830</v>
       </c>
       <c r="G51" s="10">
-        <v>797</v>
+        <v>866</v>
       </c>
       <c r="H51" s="10">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="I51" s="10">
         <v>1</v>
       </c>
       <c r="J51" s="10">
-        <v>7089</v>
+        <v>7591</v>
       </c>
       <c r="K51" s="10">
-        <v>6976</v>
+        <v>7455</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2932,34 +2932,34 @@
         <v>58</v>
       </c>
       <c r="B52" s="10">
-        <v>1907</v>
+        <v>2070</v>
       </c>
       <c r="C52" s="10">
-        <v>1867</v>
+        <v>2033</v>
       </c>
       <c r="D52" s="10">
-        <v>1654</v>
+        <v>1810</v>
       </c>
       <c r="E52" s="10">
-        <v>1697</v>
+        <v>1858</v>
       </c>
       <c r="F52" s="10">
-        <v>911</v>
+        <v>1005</v>
       </c>
       <c r="G52" s="10">
-        <v>951</v>
+        <v>1041</v>
       </c>
       <c r="H52" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I52" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J52" s="10">
-        <v>4477</v>
+        <v>4891</v>
       </c>
       <c r="K52" s="10">
-        <v>4520</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2967,22 +2967,22 @@
         <v>59</v>
       </c>
       <c r="B53" s="10">
-        <v>653</v>
+        <v>719</v>
       </c>
       <c r="C53" s="10">
-        <v>643</v>
+        <v>710</v>
       </c>
       <c r="D53" s="10">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="E53" s="10">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="F53" s="10">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="G53" s="10">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="H53" s="10">
         <v>0</v>
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="J53" s="10">
-        <v>1563</v>
+        <v>1695</v>
       </c>
       <c r="K53" s="10">
-        <v>1573</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3002,22 +3002,22 @@
         <v>60</v>
       </c>
       <c r="B54" s="10">
-        <v>433</v>
+        <v>475</v>
       </c>
       <c r="C54" s="10">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="D54" s="10">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="E54" s="10">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="F54" s="10">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G54" s="10">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H54" s="10">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="J54" s="10">
-        <v>1026</v>
+        <v>1124</v>
       </c>
       <c r="K54" s="10">
-        <v>1048</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3037,22 +3037,22 @@
         <v>61</v>
       </c>
       <c r="B55" s="10">
-        <v>1257</v>
+        <v>1342</v>
       </c>
       <c r="C55" s="10">
-        <v>1388</v>
+        <v>1464</v>
       </c>
       <c r="D55" s="10">
-        <v>671</v>
+        <v>728</v>
       </c>
       <c r="E55" s="10">
-        <v>761</v>
+        <v>824</v>
       </c>
       <c r="F55" s="10">
-        <v>713</v>
+        <v>742</v>
       </c>
       <c r="G55" s="10">
-        <v>832</v>
+        <v>893</v>
       </c>
       <c r="H55" s="10">
         <v>1</v>
@@ -3061,10 +3061,10 @@
         <v>1</v>
       </c>
       <c r="J55" s="10">
-        <v>2641</v>
+        <v>2813</v>
       </c>
       <c r="K55" s="10">
-        <v>2982</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3072,22 +3072,22 @@
         <v>62</v>
       </c>
       <c r="B56" s="10">
-        <v>688</v>
+        <v>741</v>
       </c>
       <c r="C56" s="10">
-        <v>706</v>
+        <v>761</v>
       </c>
       <c r="D56" s="10">
-        <v>738</v>
+        <v>805</v>
       </c>
       <c r="E56" s="10">
-        <v>781</v>
+        <v>849</v>
       </c>
       <c r="F56" s="10">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="G56" s="10">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="H56" s="10">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="J56" s="10">
-        <v>1781</v>
+        <v>1936</v>
       </c>
       <c r="K56" s="10">
-        <v>1897</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3107,22 +3107,22 @@
         <v>63</v>
       </c>
       <c r="B57" s="10">
-        <v>870</v>
+        <v>939</v>
       </c>
       <c r="C57" s="10">
-        <v>831</v>
+        <v>905</v>
       </c>
       <c r="D57" s="10">
-        <v>857</v>
+        <v>931</v>
       </c>
       <c r="E57" s="10">
-        <v>853</v>
+        <v>927</v>
       </c>
       <c r="F57" s="10">
-        <v>489</v>
+        <v>531</v>
       </c>
       <c r="G57" s="10">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="H57" s="10">
         <v>5</v>
@@ -3131,10 +3131,10 @@
         <v>5</v>
       </c>
       <c r="J57" s="10">
-        <v>2221</v>
+        <v>2405</v>
       </c>
       <c r="K57" s="10">
-        <v>2179</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3142,22 +3142,22 @@
         <v>64</v>
       </c>
       <c r="B58" s="10">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="C58" s="10">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="D58" s="10">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="E58" s="10">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="F58" s="10">
-        <v>580</v>
+        <v>637</v>
       </c>
       <c r="G58" s="10">
-        <v>583</v>
+        <v>642</v>
       </c>
       <c r="H58" s="10">
         <v>0</v>
@@ -3166,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="J58" s="10">
-        <v>1121</v>
+        <v>1231</v>
       </c>
       <c r="K58" s="10">
-        <v>1122</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3177,34 +3177,34 @@
         <v>65</v>
       </c>
       <c r="B59" s="8">
-        <v>17113</v>
+        <v>18639</v>
       </c>
       <c r="C59" s="8">
-        <v>16747</v>
+        <v>18310</v>
       </c>
       <c r="D59" s="8">
-        <v>18039</v>
+        <v>19693</v>
       </c>
       <c r="E59" s="8">
-        <v>19064</v>
+        <v>20767</v>
       </c>
       <c r="F59" s="8">
-        <v>6662</v>
+        <v>7286</v>
       </c>
       <c r="G59" s="8">
-        <v>7134</v>
+        <v>7774</v>
       </c>
       <c r="H59" s="8">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I59" s="8">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J59" s="8">
-        <v>41875</v>
+        <v>45684</v>
       </c>
       <c r="K59" s="8">
-        <v>43010</v>
+        <v>46921</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3212,34 +3212,34 @@
         <v>66</v>
       </c>
       <c r="B60" s="10">
-        <v>12944</v>
+        <v>14057</v>
       </c>
       <c r="C60" s="10">
-        <v>12724</v>
+        <v>13839</v>
       </c>
       <c r="D60" s="10">
-        <v>14820</v>
+        <v>16162</v>
       </c>
       <c r="E60" s="10">
-        <v>15908</v>
+        <v>17291</v>
       </c>
       <c r="F60" s="10">
-        <v>5142</v>
+        <v>5618</v>
       </c>
       <c r="G60" s="10">
-        <v>5494</v>
+        <v>5980</v>
       </c>
       <c r="H60" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I60" s="10">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J60" s="10">
-        <v>32965</v>
+        <v>35900</v>
       </c>
       <c r="K60" s="10">
-        <v>34190</v>
+        <v>37178</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3247,22 +3247,22 @@
         <v>67</v>
       </c>
       <c r="B61" s="10">
-        <v>1585</v>
+        <v>1743</v>
       </c>
       <c r="C61" s="10">
-        <v>1560</v>
+        <v>1732</v>
       </c>
       <c r="D61" s="10">
-        <v>1181</v>
+        <v>1298</v>
       </c>
       <c r="E61" s="10">
-        <v>1174</v>
+        <v>1295</v>
       </c>
       <c r="F61" s="10">
-        <v>598</v>
+        <v>656</v>
       </c>
       <c r="G61" s="10">
-        <v>656</v>
+        <v>717</v>
       </c>
       <c r="H61" s="10">
         <v>2</v>
@@ -3271,10 +3271,10 @@
         <v>2</v>
       </c>
       <c r="J61" s="10">
-        <v>3366</v>
+        <v>3699</v>
       </c>
       <c r="K61" s="10">
-        <v>3392</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3282,34 +3282,34 @@
         <v>68</v>
       </c>
       <c r="B62" s="10">
-        <v>2584</v>
+        <v>2839</v>
       </c>
       <c r="C62" s="10">
-        <v>2463</v>
+        <v>2739</v>
       </c>
       <c r="D62" s="10">
-        <v>2038</v>
+        <v>2234</v>
       </c>
       <c r="E62" s="10">
-        <v>1982</v>
+        <v>2181</v>
       </c>
       <c r="F62" s="10">
-        <v>921</v>
+        <v>1012</v>
       </c>
       <c r="G62" s="10">
-        <v>983</v>
+        <v>1077</v>
       </c>
       <c r="H62" s="10">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="I62" s="10">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="J62" s="10">
-        <v>5544</v>
+        <v>6085</v>
       </c>
       <c r="K62" s="10">
-        <v>5428</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3317,22 +3317,22 @@
         <v>69</v>
       </c>
       <c r="B63" s="8">
-        <v>924</v>
+        <v>1022</v>
       </c>
       <c r="C63" s="8">
-        <v>986</v>
+        <v>1084</v>
       </c>
       <c r="D63" s="8">
-        <v>1051</v>
+        <v>1159</v>
       </c>
       <c r="E63" s="8">
-        <v>1122</v>
+        <v>1231</v>
       </c>
       <c r="F63" s="8">
-        <v>812</v>
+        <v>896</v>
       </c>
       <c r="G63" s="8">
-        <v>885</v>
+        <v>968</v>
       </c>
       <c r="H63" s="8">
         <v>0</v>
@@ -3341,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="J63" s="8">
-        <v>2786</v>
+        <v>3077</v>
       </c>
       <c r="K63" s="8">
-        <v>2994</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3352,22 +3352,22 @@
         <v>70</v>
       </c>
       <c r="B64" s="10">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="C64" s="10">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="D64" s="10">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="E64" s="10">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="F64" s="10">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G64" s="10">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="H64" s="10">
         <v>0</v>
@@ -3376,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="J64" s="10">
-        <v>918</v>
+        <v>1019</v>
       </c>
       <c r="K64" s="10">
-        <v>890</v>
+        <v>984</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3387,22 +3387,22 @@
         <v>71</v>
       </c>
       <c r="B65" s="10">
-        <v>593</v>
+        <v>653</v>
       </c>
       <c r="C65" s="10">
-        <v>659</v>
+        <v>721</v>
       </c>
       <c r="D65" s="10">
-        <v>637</v>
+        <v>702</v>
       </c>
       <c r="E65" s="10">
-        <v>723</v>
+        <v>791</v>
       </c>
       <c r="F65" s="10">
-        <v>637</v>
+        <v>703</v>
       </c>
       <c r="G65" s="10">
-        <v>721</v>
+        <v>787</v>
       </c>
       <c r="H65" s="10">
         <v>0</v>
@@ -3411,10 +3411,10 @@
         <v>0</v>
       </c>
       <c r="J65" s="10">
-        <v>1868</v>
+        <v>2058</v>
       </c>
       <c r="K65" s="10">
-        <v>2104</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3422,34 +3422,34 @@
         <v>72</v>
       </c>
       <c r="B66" s="8">
-        <v>150007</v>
+        <v>161836</v>
       </c>
       <c r="C66" s="8">
-        <v>152089</v>
+        <v>163864</v>
       </c>
       <c r="D66" s="8">
-        <v>119196</v>
+        <v>129903</v>
       </c>
       <c r="E66" s="8">
-        <v>123234</v>
+        <v>133956</v>
       </c>
       <c r="F66" s="8">
-        <v>53228</v>
+        <v>58213</v>
       </c>
       <c r="G66" s="8">
-        <v>57939</v>
+        <v>63123</v>
       </c>
       <c r="H66" s="8">
-        <v>596</v>
+        <v>649</v>
       </c>
       <c r="I66" s="8">
-        <v>652</v>
+        <v>710</v>
       </c>
       <c r="J66" s="8">
-        <v>323026</v>
+        <v>350601</v>
       </c>
       <c r="K66" s="8">
-        <v>333913</v>
+        <v>361654</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
